--- a/data/financial_statements/sofp/VICI.xlsx
+++ b/data/financial_statements/sofp/VICI.xlsx
@@ -14,9 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -104,9 +164,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -159,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,72 +523,72 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
         <v>879665000</v>
@@ -595,8 +649,8 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>879665000</v>
@@ -657,8 +711,8 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>67000000</v>
@@ -710,8 +764,8 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
         <v>36428320000</v>
@@ -772,8 +826,8 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>36428320000</v>
@@ -834,8 +888,8 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
         <v>37307980000</v>
@@ -899,16 +953,16 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="T8">
         <v>9221000</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>45078000</v>
@@ -957,8 +1011,8 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
         <v>14000000</v>
@@ -983,8 +1037,8 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
         <v>45078000</v>
@@ -1033,8 +1087,8 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
         <v>13730500000</v>
@@ -1095,8 +1149,8 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
         <v>74000000</v>
@@ -1136,8 +1190,8 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E14">
         <v>-9000000</v>
@@ -1171,8 +1225,8 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
         <v>1515182000</v>
@@ -1233,8 +1287,8 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
         <v>15245680000</v>
@@ -1295,8 +1349,8 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
         <v>15245680000</v>
@@ -1357,8 +1411,8 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
         <v>21641950000</v>
@@ -1416,8 +1470,8 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F19">
         <v>11752850000</v>
@@ -1427,8 +1481,8 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
         <v>9631000</v>
@@ -1489,8 +1543,8 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
         <v>-133311000</v>
@@ -1551,8 +1605,8 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
         <v>22062300000</v>
@@ -1613,8 +1667,8 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B23">
         <v>22062300000</v>
@@ -1675,8 +1729,8 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B24">
         <v>37307980000</v>
@@ -1737,8 +1791,8 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B25">
         <v>963093000</v>
@@ -1799,8 +1853,8 @@
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B26">
         <v>22062300000</v>
@@ -1861,8 +1915,8 @@
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
         <v>12864835000</v>
@@ -1923,8 +1977,8 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B28">
         <v>13744500000</v>
